--- a/design_docs/quest.xlsx
+++ b/design_docs/quest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -49,7 +49,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>结算类型</t>
+    <t>settlement_type</t>
   </si>
   <si>
     <t>[[1,100]]</t>
@@ -58,9 +58,6 @@
     <t>周一</t>
   </si>
   <si>
-    <t>立即结算</t>
-  </si>
-  <si>
     <t>[[1,150]]</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>累计3天</t>
-  </si>
-  <si>
-    <t>领取结算</t>
   </si>
   <si>
     <t>累计6天</t>
@@ -1076,13 +1070,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.0540540540541" customWidth="1"/>
     <col min="4" max="4" width="16.7477477477477" customWidth="1"/>
+    <col min="7" max="7" width="17.0630630630631" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.85" spans="1:7">
@@ -1127,8 +1122,8 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.85" spans="1:7">
@@ -1142,16 +1137,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.85" spans="1:7">
@@ -1165,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.85" spans="1:7">
@@ -1188,16 +1183,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.85" spans="1:7">
@@ -1211,16 +1206,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.85" spans="1:7">
@@ -1234,16 +1229,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.85" spans="1:7">
@@ -1257,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.85" spans="1:7">
@@ -1286,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="14.85" spans="1:7">
@@ -1303,16 +1298,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="14.85" spans="1:7">
@@ -1326,16 +1321,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
         <v>23</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="14.85" spans="1:7">
@@ -1349,16 +1344,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="14.85" spans="1:7">
@@ -1372,16 +1367,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="14.85" spans="1:7">
@@ -1395,21 +1390,21 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="14.85" spans="1:7">
       <c r="A15">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1418,13 +1413,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>23</v>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
